--- a/Code/Testing Code/weizmann_training_mean.xlsx
+++ b/Code/Testing Code/weizmann_training_mean.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\TA\TugasAkhir\Code\Training Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{076C6AC7-E05B-4A77-9126-E83C8EA300B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C1C47FF-9405-4658-B9D9-3F6808B5BBF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="1" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="2" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MEAN" sheetId="2" r:id="rId2"/>
+    <sheet name="MEAN_RINA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,10 +385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27537602-1404-466B-906C-F9F794953790}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +723,351 @@
         <v>13.669101682192034</v>
       </c>
     </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25.611420744738247</v>
+      </c>
+      <c r="B4">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="C4">
+        <v>-9.3142675435141079E-6</v>
+      </c>
+      <c r="D4">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="E4">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.2479570333826307E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="H4">
+        <v>26.762162565759677</v>
+      </c>
+      <c r="I4">
+        <v>4.0831738765665339E-7</v>
+      </c>
+      <c r="J4">
+        <v>9.7816935969399143E-6</v>
+      </c>
+      <c r="K4">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="L4">
+        <v>1.1537767622020191E-4</v>
+      </c>
+      <c r="M4">
+        <v>-9.3142675435140554E-6</v>
+      </c>
+      <c r="N4">
+        <v>4.0831738765665238E-7</v>
+      </c>
+      <c r="O4">
+        <v>18.441700844600035</v>
+      </c>
+      <c r="P4">
+        <v>-2.2320386086654224E-5</v>
+      </c>
+      <c r="Q4">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="R4">
+        <v>-1.0831936925313607E-3</v>
+      </c>
+      <c r="S4">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="T4">
+        <v>9.781693596939916E-6</v>
+      </c>
+      <c r="U4">
+        <v>-2.2320386086654207E-5</v>
+      </c>
+      <c r="V4">
+        <v>11.422982974032335</v>
+      </c>
+      <c r="W4">
+        <v>3.0620455234825508E-2</v>
+      </c>
+      <c r="X4">
+        <v>-2.4068193694747751E-2</v>
+      </c>
+      <c r="Y4">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="Z4">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="AA4">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="AB4">
+        <v>3.0620455234825466E-2</v>
+      </c>
+      <c r="AC4">
+        <v>11.343944979851258</v>
+      </c>
+      <c r="AD4">
+        <v>1.1261206270571093E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.2479570333826318E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.1537767622020172E-4</v>
+      </c>
+      <c r="AG4">
+        <v>-1.0831936925312371E-3</v>
+      </c>
+      <c r="AH4">
+        <v>-2.4068193694747757E-2</v>
+      </c>
+      <c r="AI4">
+        <v>1.1261206270571094E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>18.465492258242733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540C372-108B-4EDB-A8B3-4B5900C12CDF}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>25.611420744738247</v>
+      </c>
+      <c r="B1">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="C1">
+        <v>-9.3142675435141079E-6</v>
+      </c>
+      <c r="D1">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="E1">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="F1">
+        <v>1.2479570333826307E-3</v>
+      </c>
+      <c r="G1">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="H1">
+        <v>26.762162565759677</v>
+      </c>
+      <c r="I1">
+        <v>4.0831738765665339E-7</v>
+      </c>
+      <c r="J1">
+        <v>9.7816935969399143E-6</v>
+      </c>
+      <c r="K1">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="L1">
+        <v>1.1537767622020191E-4</v>
+      </c>
+      <c r="M1">
+        <v>-9.3142675435140554E-6</v>
+      </c>
+      <c r="N1">
+        <v>4.0831738765665238E-7</v>
+      </c>
+      <c r="O1">
+        <v>18.441700844600035</v>
+      </c>
+      <c r="P1">
+        <v>-2.2320386086654224E-5</v>
+      </c>
+      <c r="Q1">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="R1">
+        <v>-1.0831936925313607E-3</v>
+      </c>
+      <c r="S1">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="T1">
+        <v>9.781693596939916E-6</v>
+      </c>
+      <c r="U1">
+        <v>-2.2320386086654207E-5</v>
+      </c>
+      <c r="V1">
+        <v>11.422982974032335</v>
+      </c>
+      <c r="W1">
+        <v>3.0620455234825508E-2</v>
+      </c>
+      <c r="X1">
+        <v>-2.4068193694747751E-2</v>
+      </c>
+      <c r="Y1">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="Z1">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="AA1">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="AB1">
+        <v>3.0620455234825466E-2</v>
+      </c>
+      <c r="AC1">
+        <v>11.343944979851258</v>
+      </c>
+      <c r="AD1">
+        <v>1.1261206270571093E-2</v>
+      </c>
+      <c r="AE1">
+        <v>1.2479570333826318E-3</v>
+      </c>
+      <c r="AF1">
+        <v>1.1537767622020172E-4</v>
+      </c>
+      <c r="AG1">
+        <v>-1.0831936925312371E-3</v>
+      </c>
+      <c r="AH1">
+        <v>-2.4068193694747757E-2</v>
+      </c>
+      <c r="AI1">
+        <v>1.1261206270571094E-2</v>
+      </c>
+      <c r="AJ1">
+        <v>18.465492258242733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25.611409002802318</v>
+      </c>
+      <c r="B2">
+        <v>3.3956324747623343E-6</v>
+      </c>
+      <c r="C2">
+        <v>-1.225566657904738E-5</v>
+      </c>
+      <c r="D2">
+        <v>7.753161550144823E-5</v>
+      </c>
+      <c r="E2">
+        <v>-1.9288118463352646E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.6251138042429191E-3</v>
+      </c>
+      <c r="G2">
+        <v>3.3956324747623352E-6</v>
+      </c>
+      <c r="H2">
+        <v>26.762162022300625</v>
+      </c>
+      <c r="I2">
+        <v>-1.1500925897159817E-7</v>
+      </c>
+      <c r="J2">
+        <v>-1.9747036568669794E-5</v>
+      </c>
+      <c r="K2">
+        <v>4.8512949858872721E-5</v>
+      </c>
+      <c r="L2">
+        <v>5.4290211289608175E-4</v>
+      </c>
+      <c r="M2">
+        <v>-1.2255666579047221E-5</v>
+      </c>
+      <c r="N2">
+        <v>-1.1500925897160474E-7</v>
+      </c>
+      <c r="O2">
+        <v>18.440972767818156</v>
+      </c>
+      <c r="P2">
+        <v>4.4045312835392698E-4</v>
+      </c>
+      <c r="Q2">
+        <v>-1.1892753209591973E-4</v>
+      </c>
+      <c r="R2">
+        <v>-8.088732161468869E-3</v>
+      </c>
+      <c r="S2">
+        <v>7.7531615501448244E-5</v>
+      </c>
+      <c r="T2">
+        <v>-1.9747036568669797E-5</v>
+      </c>
+      <c r="U2">
+        <v>4.4045312835392839E-4</v>
+      </c>
+      <c r="V2">
+        <v>12.544627282255631</v>
+      </c>
+      <c r="W2">
+        <v>5.1413273969848636E-3</v>
+      </c>
+      <c r="X2">
+        <v>-4.9593546370774559E-2</v>
+      </c>
+      <c r="Y2">
+        <v>-1.9288118463352646E-4</v>
+      </c>
+      <c r="Z2">
+        <v>4.8512949858872721E-5</v>
+      </c>
+      <c r="AA2">
+        <v>-1.1892753209591946E-4</v>
+      </c>
+      <c r="AB2">
+        <v>5.1413273969848393E-3</v>
+      </c>
+      <c r="AC2">
+        <v>12.608116394867508</v>
+      </c>
+      <c r="AD2">
+        <v>-7.0074963804927807E-3</v>
+      </c>
+      <c r="AE2">
+        <v>1.6251138042429189E-3</v>
+      </c>
+      <c r="AF2">
+        <v>5.4290211289608132E-4</v>
+      </c>
+      <c r="AG2">
+        <v>-8.0887321614689662E-3</v>
+      </c>
+      <c r="AH2">
+        <v>-4.9593546370774538E-2</v>
+      </c>
+      <c r="AI2">
+        <v>-7.0074963804927781E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>18.970115585258046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/Testing Code/weizmann_training_mean.xlsx
+++ b/Code/Testing Code/weizmann_training_mean.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\TA\TugasAkhir\Code\Training Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C1C47FF-9405-4658-B9D9-3F6808B5BBF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDE8F107-64AC-49C2-B5C0-E77DFBD59FE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="2" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="3" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MEAN" sheetId="2" r:id="rId2"/>
     <sheet name="MEAN_RINA" sheetId="3" r:id="rId3"/>
+    <sheet name="MEAN_CCTV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -842,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540C372-108B-4EDB-A8B3-4B5900C12CDF}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AJ2"/>
     </sheetView>
   </sheetViews>
@@ -1071,4 +1072,1669 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05319B-4AD6-40E5-BB9D-9680BF01BCF4}">
+  <dimension ref="A1:AJ15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>22.832529604904632</v>
+      </c>
+      <c r="B1">
+        <v>7.3285350166207008E-6</v>
+      </c>
+      <c r="C1">
+        <v>-1.6383901152784961E-5</v>
+      </c>
+      <c r="D1">
+        <v>1.4040695274530155E-4</v>
+      </c>
+      <c r="E1">
+        <v>-1.9165608649324663E-4</v>
+      </c>
+      <c r="F1">
+        <v>1.8482573778928963E-3</v>
+      </c>
+      <c r="G1">
+        <v>7.3285350166207008E-6</v>
+      </c>
+      <c r="H1">
+        <v>23.970761028131854</v>
+      </c>
+      <c r="I1">
+        <v>1.8135848377644816E-6</v>
+      </c>
+      <c r="J1">
+        <v>-8.5955823044829392E-5</v>
+      </c>
+      <c r="K1">
+        <v>8.7013268370224496E-5</v>
+      </c>
+      <c r="L1">
+        <v>4.1660471054172371E-4</v>
+      </c>
+      <c r="M1">
+        <v>-1.6383901152784994E-5</v>
+      </c>
+      <c r="N1">
+        <v>1.8135848377644735E-6</v>
+      </c>
+      <c r="O1">
+        <v>17.0488062617266</v>
+      </c>
+      <c r="P1">
+        <v>2.3025670812699595E-4</v>
+      </c>
+      <c r="Q1">
+        <v>4.6586081583058919E-4</v>
+      </c>
+      <c r="R1">
+        <v>-3.8353571366607406E-3</v>
+      </c>
+      <c r="S1">
+        <v>1.4040695274530155E-4</v>
+      </c>
+      <c r="T1">
+        <v>-8.5955823044829365E-5</v>
+      </c>
+      <c r="U1">
+        <v>2.3025670812699595E-4</v>
+      </c>
+      <c r="V1">
+        <v>10.28828005832257</v>
+      </c>
+      <c r="W1">
+        <v>-1.6197959414924933E-2</v>
+      </c>
+      <c r="X1">
+        <v>-5.4395174407316296E-2</v>
+      </c>
+      <c r="Y1">
+        <v>-1.916560864932466E-4</v>
+      </c>
+      <c r="Z1">
+        <v>8.7013268370224496E-5</v>
+      </c>
+      <c r="AA1">
+        <v>4.6586081583058941E-4</v>
+      </c>
+      <c r="AB1">
+        <v>-1.6197959414924957E-2</v>
+      </c>
+      <c r="AC1">
+        <v>10.343932574618174</v>
+      </c>
+      <c r="AD1">
+        <v>-1.1262301977528833E-2</v>
+      </c>
+      <c r="AE1">
+        <v>1.8482573778928963E-3</v>
+      </c>
+      <c r="AF1">
+        <v>4.1660471054172398E-4</v>
+      </c>
+      <c r="AG1">
+        <v>-3.8353571366607111E-3</v>
+      </c>
+      <c r="AH1">
+        <v>-5.439517440731631E-2</v>
+      </c>
+      <c r="AI1">
+        <v>-1.126230197752884E-2</v>
+      </c>
+      <c r="AJ1">
+        <v>17.369234213662374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22.832551354111153</v>
+      </c>
+      <c r="B2">
+        <v>5.5742213748958116E-6</v>
+      </c>
+      <c r="C2">
+        <v>-4.3484886072169207E-6</v>
+      </c>
+      <c r="D2">
+        <v>9.7227141514210516E-5</v>
+      </c>
+      <c r="E2">
+        <v>1.4850837218360633E-4</v>
+      </c>
+      <c r="F2">
+        <v>-1.5052911656573752E-3</v>
+      </c>
+      <c r="G2">
+        <v>5.5742213748958116E-6</v>
+      </c>
+      <c r="H2">
+        <v>23.970761060224412</v>
+      </c>
+      <c r="I2">
+        <v>1.7309274048827533E-6</v>
+      </c>
+      <c r="J2">
+        <v>1.0945747936404281E-5</v>
+      </c>
+      <c r="K2">
+        <v>-1.0937914938441936E-4</v>
+      </c>
+      <c r="L2">
+        <v>1.1078099118227382E-3</v>
+      </c>
+      <c r="M2">
+        <v>-4.348488607216925E-6</v>
+      </c>
+      <c r="N2">
+        <v>1.7309274048827607E-6</v>
+      </c>
+      <c r="O2">
+        <v>17.049079666216691</v>
+      </c>
+      <c r="P2">
+        <v>6.4126383870668471E-4</v>
+      </c>
+      <c r="Q2">
+        <v>-8.4908331960737164E-4</v>
+      </c>
+      <c r="R2">
+        <v>7.1538458240827331E-4</v>
+      </c>
+      <c r="S2">
+        <v>9.722714151421057E-5</v>
+      </c>
+      <c r="T2">
+        <v>1.0945747936404284E-5</v>
+      </c>
+      <c r="U2">
+        <v>6.4126383870668428E-4</v>
+      </c>
+      <c r="V2">
+        <v>10.111513653837875</v>
+      </c>
+      <c r="W2">
+        <v>-7.794466718740508E-3</v>
+      </c>
+      <c r="X2">
+        <v>-5.1932116444830631E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1.4850837218360633E-4</v>
+      </c>
+      <c r="Z2">
+        <v>-1.0937914938441937E-4</v>
+      </c>
+      <c r="AA2">
+        <v>-8.4908331960737154E-4</v>
+      </c>
+      <c r="AB2">
+        <v>-7.7944667187405357E-3</v>
+      </c>
+      <c r="AC2">
+        <v>10.200190110104186</v>
+      </c>
+      <c r="AD2">
+        <v>-7.0494062891894565E-3</v>
+      </c>
+      <c r="AE2">
+        <v>-1.5052911656573752E-3</v>
+      </c>
+      <c r="AF2">
+        <v>1.1078099118227379E-3</v>
+      </c>
+      <c r="AG2">
+        <v>7.1538458240826398E-4</v>
+      </c>
+      <c r="AH2">
+        <v>-5.1932116444830631E-2</v>
+      </c>
+      <c r="AI2">
+        <v>-7.0494062891894574E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>17.031897794013279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22.832532058792886</v>
+      </c>
+      <c r="B3">
+        <v>-2.5274120585201134E-6</v>
+      </c>
+      <c r="C3">
+        <v>-1.8282660349572738E-5</v>
+      </c>
+      <c r="D3">
+        <v>5.7580667994120913E-4</v>
+      </c>
+      <c r="E3">
+        <v>-3.1109977663031324E-4</v>
+      </c>
+      <c r="F3">
+        <v>-7.4176176789904997E-4</v>
+      </c>
+      <c r="G3">
+        <v>-2.5274120585201156E-6</v>
+      </c>
+      <c r="H3">
+        <v>23.970759758623185</v>
+      </c>
+      <c r="I3">
+        <v>7.2298582305378688E-6</v>
+      </c>
+      <c r="J3">
+        <v>1.8967417376077343E-4</v>
+      </c>
+      <c r="K3">
+        <v>-2.4476544297866091E-5</v>
+      </c>
+      <c r="L3">
+        <v>-4.8275745639873554E-4</v>
+      </c>
+      <c r="M3">
+        <v>-1.8282660349572748E-5</v>
+      </c>
+      <c r="N3">
+        <v>7.2298582305378646E-6</v>
+      </c>
+      <c r="O3">
+        <v>17.048773764745071</v>
+      </c>
+      <c r="P3">
+        <v>-8.0165221033259826E-5</v>
+      </c>
+      <c r="Q3">
+        <v>3.3970144902536624E-4</v>
+      </c>
+      <c r="R3">
+        <v>-3.3943895388604669E-3</v>
+      </c>
+      <c r="S3">
+        <v>5.7580667994120913E-4</v>
+      </c>
+      <c r="T3">
+        <v>1.8967417376077338E-4</v>
+      </c>
+      <c r="U3">
+        <v>-8.0165221033260084E-5</v>
+      </c>
+      <c r="V3">
+        <v>9.2436713703673608</v>
+      </c>
+      <c r="W3">
+        <v>-1.1344814920644999E-2</v>
+      </c>
+      <c r="X3">
+        <v>-6.4634301566415878E-2</v>
+      </c>
+      <c r="Y3">
+        <v>-3.1109977663031318E-4</v>
+      </c>
+      <c r="Z3">
+        <v>-2.4476544297866094E-5</v>
+      </c>
+      <c r="AA3">
+        <v>3.3970144902536662E-4</v>
+      </c>
+      <c r="AB3">
+        <v>-1.1344814920645058E-2</v>
+      </c>
+      <c r="AC3">
+        <v>9.2694157315304082</v>
+      </c>
+      <c r="AD3">
+        <v>-4.9635742408664432E-2</v>
+      </c>
+      <c r="AE3">
+        <v>-7.4176176789905041E-4</v>
+      </c>
+      <c r="AF3">
+        <v>-4.8275745639873537E-4</v>
+      </c>
+      <c r="AG3">
+        <v>-3.3943895388604656E-3</v>
+      </c>
+      <c r="AH3">
+        <v>-6.4634301566415878E-2</v>
+      </c>
+      <c r="AI3">
+        <v>-4.9635742408664432E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>15.658359124212492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22.83253068112117</v>
+      </c>
+      <c r="B4">
+        <v>1.9776265723750113E-6</v>
+      </c>
+      <c r="C4">
+        <v>-1.5864986440785009E-5</v>
+      </c>
+      <c r="D4">
+        <v>-1.575612385930968E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.8711235448816044E-4</v>
+      </c>
+      <c r="F4">
+        <v>-2.274686563984473E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.9776265723750138E-6</v>
+      </c>
+      <c r="H4">
+        <v>23.97075804450105</v>
+      </c>
+      <c r="I4">
+        <v>-6.7731873578504647E-6</v>
+      </c>
+      <c r="J4">
+        <v>-5.1908171433962897E-5</v>
+      </c>
+      <c r="K4">
+        <v>1.8562896895940254E-5</v>
+      </c>
+      <c r="L4">
+        <v>6.2353720312208259E-4</v>
+      </c>
+      <c r="M4">
+        <v>-1.5864986440784998E-5</v>
+      </c>
+      <c r="N4">
+        <v>-6.7731873578504511E-6</v>
+      </c>
+      <c r="O4">
+        <v>17.048646645976994</v>
+      </c>
+      <c r="P4">
+        <v>9.5188855824551439E-4</v>
+      </c>
+      <c r="Q4">
+        <v>3.2074382720886631E-4</v>
+      </c>
+      <c r="R4">
+        <v>-1.4079769292144849E-2</v>
+      </c>
+      <c r="S4">
+        <v>-1.575612385930968E-4</v>
+      </c>
+      <c r="T4">
+        <v>-5.1908171433962869E-5</v>
+      </c>
+      <c r="U4">
+        <v>9.5188855824551439E-4</v>
+      </c>
+      <c r="V4">
+        <v>10.357917365105131</v>
+      </c>
+      <c r="W4">
+        <v>-4.7909702067112222E-3</v>
+      </c>
+      <c r="X4">
+        <v>-8.4436867070273508E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.8711235448816042E-4</v>
+      </c>
+      <c r="Z4">
+        <v>1.8562896895940244E-5</v>
+      </c>
+      <c r="AA4">
+        <v>3.207438272088662E-4</v>
+      </c>
+      <c r="AB4">
+        <v>-4.7909702067111303E-3</v>
+      </c>
+      <c r="AC4">
+        <v>10.382049315189677</v>
+      </c>
+      <c r="AD4">
+        <v>-5.9294090128060604E-2</v>
+      </c>
+      <c r="AE4">
+        <v>-2.2746865639844726E-3</v>
+      </c>
+      <c r="AF4">
+        <v>6.2353720312208292E-4</v>
+      </c>
+      <c r="AG4">
+        <v>-1.4079769292144837E-2</v>
+      </c>
+      <c r="AH4">
+        <v>-8.443686707027348E-2</v>
+      </c>
+      <c r="AI4">
+        <v>-5.9294090128060604E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>16.693983343417703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22.832564777393209</v>
+      </c>
+      <c r="B5">
+        <v>-1.3637491207148768E-6</v>
+      </c>
+      <c r="C5">
+        <v>1.2583892218656703E-6</v>
+      </c>
+      <c r="D5">
+        <v>5.3522014670169607E-6</v>
+      </c>
+      <c r="E5">
+        <v>4.6423609817613059E-5</v>
+      </c>
+      <c r="F5">
+        <v>6.3504041942074566E-4</v>
+      </c>
+      <c r="G5">
+        <v>-1.3637491207148772E-6</v>
+      </c>
+      <c r="H5">
+        <v>23.970761409360708</v>
+      </c>
+      <c r="I5">
+        <v>-1.9422030111834866E-6</v>
+      </c>
+      <c r="J5">
+        <v>-9.0401571577212729E-5</v>
+      </c>
+      <c r="K5">
+        <v>-7.7139934450495929E-6</v>
+      </c>
+      <c r="L5">
+        <v>2.2297872864045299E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.2583892218656788E-6</v>
+      </c>
+      <c r="N5">
+        <v>-1.9422030111834769E-6</v>
+      </c>
+      <c r="O5">
+        <v>17.049165819387735</v>
+      </c>
+      <c r="P5">
+        <v>4.0350264469252834E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1.9890980679205777E-4</v>
+      </c>
+      <c r="R5">
+        <v>-2.6401418650754439E-3</v>
+      </c>
+      <c r="S5">
+        <v>5.3522014670169751E-6</v>
+      </c>
+      <c r="T5">
+        <v>-9.0401571577212729E-5</v>
+      </c>
+      <c r="U5">
+        <v>4.0350264469252818E-4</v>
+      </c>
+      <c r="V5">
+        <v>9.4429848600076838</v>
+      </c>
+      <c r="W5">
+        <v>-1.1277639336905959E-2</v>
+      </c>
+      <c r="X5">
+        <v>-4.6979428087501413E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4.6423609817613052E-5</v>
+      </c>
+      <c r="Z5">
+        <v>-7.7139934450496031E-6</v>
+      </c>
+      <c r="AA5">
+        <v>1.9890980679205768E-4</v>
+      </c>
+      <c r="AB5">
+        <v>-1.1277639336905988E-2</v>
+      </c>
+      <c r="AC5">
+        <v>9.4014380780720384</v>
+      </c>
+      <c r="AD5">
+        <v>-2.8227592013909911E-2</v>
+      </c>
+      <c r="AE5">
+        <v>6.3504041942074663E-4</v>
+      </c>
+      <c r="AF5">
+        <v>2.2297872864045272E-4</v>
+      </c>
+      <c r="AG5">
+        <v>-2.6401418650754222E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-4.6979428087501399E-2</v>
+      </c>
+      <c r="AI5">
+        <v>-2.8227592013909907E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>16.495491122107527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22.832566254645265</v>
+      </c>
+      <c r="B6">
+        <v>-9.3670349594738649E-7</v>
+      </c>
+      <c r="C6">
+        <v>-3.9566393036173225E-7</v>
+      </c>
+      <c r="D6">
+        <v>2.5958158040483326E-5</v>
+      </c>
+      <c r="E6">
+        <v>-5.9263539863035981E-5</v>
+      </c>
+      <c r="F6">
+        <v>-1.9737135193222551E-3</v>
+      </c>
+      <c r="G6">
+        <v>-9.3670349594738659E-7</v>
+      </c>
+      <c r="H6">
+        <v>23.970760330009959</v>
+      </c>
+      <c r="I6">
+        <v>-3.9153238755165037E-6</v>
+      </c>
+      <c r="J6">
+        <v>7.1380045613383795E-5</v>
+      </c>
+      <c r="K6">
+        <v>3.0585370229636986E-5</v>
+      </c>
+      <c r="L6">
+        <v>-1.0297207405683302E-3</v>
+      </c>
+      <c r="M6">
+        <v>-3.9566393036174215E-7</v>
+      </c>
+      <c r="N6">
+        <v>-3.9153238755165198E-6</v>
+      </c>
+      <c r="O6">
+        <v>17.049009830631228</v>
+      </c>
+      <c r="P6">
+        <v>-1.6370052425281693E-4</v>
+      </c>
+      <c r="Q6">
+        <v>2.8210234825556041E-4</v>
+      </c>
+      <c r="R6">
+        <v>-6.6897683289101869E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.595815804048331E-5</v>
+      </c>
+      <c r="T6">
+        <v>7.1380045613383795E-5</v>
+      </c>
+      <c r="U6">
+        <v>-1.6370052425281683E-4</v>
+      </c>
+      <c r="V6">
+        <v>9.9473979081778552</v>
+      </c>
+      <c r="W6">
+        <v>2.5234130419871215E-2</v>
+      </c>
+      <c r="X6">
+        <v>-5.6029579262142991E-2</v>
+      </c>
+      <c r="Y6">
+        <v>-5.9263539863035981E-5</v>
+      </c>
+      <c r="Z6">
+        <v>3.0585370229636986E-5</v>
+      </c>
+      <c r="AA6">
+        <v>2.8210234825556041E-4</v>
+      </c>
+      <c r="AB6">
+        <v>2.5234130419871104E-2</v>
+      </c>
+      <c r="AC6">
+        <v>9.9176042665879951</v>
+      </c>
+      <c r="AD6">
+        <v>-4.3811194743198334E-2</v>
+      </c>
+      <c r="AE6">
+        <v>-1.9737135193222551E-3</v>
+      </c>
+      <c r="AF6">
+        <v>-1.0297207405683306E-3</v>
+      </c>
+      <c r="AG6">
+        <v>-6.6897683289101739E-3</v>
+      </c>
+      <c r="AH6">
+        <v>-5.6029579262142991E-2</v>
+      </c>
+      <c r="AI6">
+        <v>-4.3811194743198327E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>16.510087639908171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22.832548038497691</v>
+      </c>
+      <c r="B7">
+        <v>2.2745332775963149E-6</v>
+      </c>
+      <c r="C7">
+        <v>-6.8300714437856611E-6</v>
+      </c>
+      <c r="D7">
+        <v>-7.7291079144310452E-5</v>
+      </c>
+      <c r="E7">
+        <v>-8.6987736438684448E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.1930605930845534E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.2745332775963141E-6</v>
+      </c>
+      <c r="H7">
+        <v>23.970762744545233</v>
+      </c>
+      <c r="I7">
+        <v>3.6911694330503757E-7</v>
+      </c>
+      <c r="J7">
+        <v>-4.1953233131114724E-5</v>
+      </c>
+      <c r="K7">
+        <v>1.0483363049920797E-4</v>
+      </c>
+      <c r="L7">
+        <v>-3.0806269667318258E-4</v>
+      </c>
+      <c r="M7">
+        <v>-6.8300714437857E-6</v>
+      </c>
+      <c r="N7">
+        <v>3.6911694330504429E-7</v>
+      </c>
+      <c r="O7">
+        <v>17.049188989780038</v>
+      </c>
+      <c r="P7">
+        <v>9.7972826825028044E-5</v>
+      </c>
+      <c r="Q7">
+        <v>-5.7484766852313894E-4</v>
+      </c>
+      <c r="R7">
+        <v>8.0868060322482197E-5</v>
+      </c>
+      <c r="S7">
+        <v>-7.7291079144310452E-5</v>
+      </c>
+      <c r="T7">
+        <v>-4.1953233131114724E-5</v>
+      </c>
+      <c r="U7">
+        <v>9.7972826825027895E-5</v>
+      </c>
+      <c r="V7">
+        <v>9.3562339146839566</v>
+      </c>
+      <c r="W7">
+        <v>1.8458370359723058E-3</v>
+      </c>
+      <c r="X7">
+        <v>-2.8129127052475073E-2</v>
+      </c>
+      <c r="Y7">
+        <v>-8.698773643868438E-5</v>
+      </c>
+      <c r="Z7">
+        <v>1.0483363049920797E-4</v>
+      </c>
+      <c r="AA7">
+        <v>-5.7484766852313905E-4</v>
+      </c>
+      <c r="AB7">
+        <v>1.8458370359723021E-3</v>
+      </c>
+      <c r="AC7">
+        <v>9.3447353261965755</v>
+      </c>
+      <c r="AD7">
+        <v>-8.060522877527881E-4</v>
+      </c>
+      <c r="AE7">
+        <v>3.1930605930845521E-3</v>
+      </c>
+      <c r="AF7">
+        <v>-3.0806269667318269E-4</v>
+      </c>
+      <c r="AG7">
+        <v>8.0868060322460838E-5</v>
+      </c>
+      <c r="AH7">
+        <v>-2.8129127052475084E-2</v>
+      </c>
+      <c r="AI7">
+        <v>-8.0605228775278604E-4</v>
+      </c>
+      <c r="AJ7">
+        <v>17.094619825148918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22.832558023385342</v>
+      </c>
+      <c r="B8">
+        <v>3.1863481864432549E-6</v>
+      </c>
+      <c r="C8">
+        <v>-3.702107656468526E-6</v>
+      </c>
+      <c r="D8">
+        <v>4.6960761616820539E-5</v>
+      </c>
+      <c r="E8">
+        <v>2.071841848055384E-4</v>
+      </c>
+      <c r="F8">
+        <v>-2.7800865966784629E-3</v>
+      </c>
+      <c r="G8">
+        <v>3.1863481864432553E-6</v>
+      </c>
+      <c r="H8">
+        <v>23.970762072842824</v>
+      </c>
+      <c r="I8">
+        <v>2.0249105416811961E-6</v>
+      </c>
+      <c r="J8">
+        <v>1.4926576446585058E-4</v>
+      </c>
+      <c r="K8">
+        <v>-2.0937799976939597E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.0943780307706799E-3</v>
+      </c>
+      <c r="M8">
+        <v>-3.7021076564685294E-6</v>
+      </c>
+      <c r="N8">
+        <v>2.0249105416811973E-6</v>
+      </c>
+      <c r="O8">
+        <v>17.049130479435011</v>
+      </c>
+      <c r="P8">
+        <v>4.0554912676905739E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-5.8353780061815659E-4</v>
+      </c>
+      <c r="R8">
+        <v>-3.9004202828786319E-3</v>
+      </c>
+      <c r="S8">
+        <v>4.6960761616820552E-5</v>
+      </c>
+      <c r="T8">
+        <v>1.4926576446585058E-4</v>
+      </c>
+      <c r="U8">
+        <v>4.0554912676905733E-4</v>
+      </c>
+      <c r="V8">
+        <v>9.935340408307658</v>
+      </c>
+      <c r="W8">
+        <v>-9.0363663792680359E-3</v>
+      </c>
+      <c r="X8">
+        <v>-4.0243722220564875E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.0718418480553835E-4</v>
+      </c>
+      <c r="Z8">
+        <v>-2.0937799976939597E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-5.8353780061815637E-4</v>
+      </c>
+      <c r="AB8">
+        <v>-9.0363663792680515E-3</v>
+      </c>
+      <c r="AC8">
+        <v>9.967097901979546</v>
+      </c>
+      <c r="AD8">
+        <v>2.4892986250212696E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-2.7800865966784629E-3</v>
+      </c>
+      <c r="AF8">
+        <v>1.0943780307706794E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-3.9004202828786319E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-4.0243722220564868E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.4892986250212709E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>17.168330558935345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22.832541513601566</v>
+      </c>
+      <c r="B9">
+        <v>-2.048776545625127E-6</v>
+      </c>
+      <c r="C9">
+        <v>-1.5734898374866996E-5</v>
+      </c>
+      <c r="D9">
+        <v>9.1512835213283089E-4</v>
+      </c>
+      <c r="E9">
+        <v>-4.8458680563656935E-4</v>
+      </c>
+      <c r="F9">
+        <v>-4.2195610513505693E-4</v>
+      </c>
+      <c r="G9">
+        <v>-2.0487765456251274E-6</v>
+      </c>
+      <c r="H9">
+        <v>23.970759131362165</v>
+      </c>
+      <c r="I9">
+        <v>1.5650374333362553E-6</v>
+      </c>
+      <c r="J9">
+        <v>2.3680059964527393E-4</v>
+      </c>
+      <c r="K9">
+        <v>-6.1174180347364435E-6</v>
+      </c>
+      <c r="L9">
+        <v>-5.9982176250062715E-4</v>
+      </c>
+      <c r="M9">
+        <v>-1.5734898374866962E-5</v>
+      </c>
+      <c r="N9">
+        <v>1.5650374333362437E-6</v>
+      </c>
+      <c r="O9">
+        <v>17.048972748379928</v>
+      </c>
+      <c r="P9">
+        <v>1.1265932627726158E-4</v>
+      </c>
+      <c r="Q9">
+        <v>2.8757027852453087E-5</v>
+      </c>
+      <c r="R9">
+        <v>-5.996163395739617E-3</v>
+      </c>
+      <c r="S9">
+        <v>9.1512835213283111E-4</v>
+      </c>
+      <c r="T9">
+        <v>2.3680059964527393E-4</v>
+      </c>
+      <c r="U9">
+        <v>1.1265932627726186E-4</v>
+      </c>
+      <c r="V9">
+        <v>9.8043147224218625</v>
+      </c>
+      <c r="W9">
+        <v>-1.5175271742642242E-2</v>
+      </c>
+      <c r="X9">
+        <v>-4.7885621726491079E-2</v>
+      </c>
+      <c r="Y9">
+        <v>-4.8458680563656935E-4</v>
+      </c>
+      <c r="Z9">
+        <v>-6.1174180347364452E-6</v>
+      </c>
+      <c r="AA9">
+        <v>2.8757027852453328E-5</v>
+      </c>
+      <c r="AB9">
+        <v>-1.5175271742642193E-2</v>
+      </c>
+      <c r="AC9">
+        <v>9.79604177011052</v>
+      </c>
+      <c r="AD9">
+        <v>-4.5190596264946384E-2</v>
+      </c>
+      <c r="AE9">
+        <v>-4.2195610513505693E-4</v>
+      </c>
+      <c r="AF9">
+        <v>-5.9982176250062715E-4</v>
+      </c>
+      <c r="AG9">
+        <v>-5.9961633957396222E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-4.7885621726491079E-2</v>
+      </c>
+      <c r="AI9">
+        <v>-4.5190596264946377E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>16.577577904269205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22.832537882566736</v>
+      </c>
+      <c r="B10">
+        <v>-8.6002214488673856E-7</v>
+      </c>
+      <c r="C10">
+        <v>-1.0034073479966272E-5</v>
+      </c>
+      <c r="D10">
+        <v>-7.1755299204229086E-4</v>
+      </c>
+      <c r="E10">
+        <v>5.3584256940116134E-4</v>
+      </c>
+      <c r="F10">
+        <v>-2.0488038680317186E-3</v>
+      </c>
+      <c r="G10">
+        <v>-8.6002214488673634E-7</v>
+      </c>
+      <c r="H10">
+        <v>23.970759567796669</v>
+      </c>
+      <c r="I10">
+        <v>-4.9358472647757752E-6</v>
+      </c>
+      <c r="J10">
+        <v>-1.1790946860534359E-4</v>
+      </c>
+      <c r="K10">
+        <v>1.7748475698767941E-5</v>
+      </c>
+      <c r="L10">
+        <v>1.1523223842407528E-3</v>
+      </c>
+      <c r="M10">
+        <v>-1.0034073479966284E-5</v>
+      </c>
+      <c r="N10">
+        <v>-4.9358472647757744E-6</v>
+      </c>
+      <c r="O10">
+        <v>17.048883129303679</v>
+      </c>
+      <c r="P10">
+        <v>4.8696391682215902E-4</v>
+      </c>
+      <c r="Q10">
+        <v>-2.7408640190427651E-4</v>
+      </c>
+      <c r="R10">
+        <v>-2.5881036484147039E-3</v>
+      </c>
+      <c r="S10">
+        <v>-7.1755299204229119E-4</v>
+      </c>
+      <c r="T10">
+        <v>-1.1790946860534361E-4</v>
+      </c>
+      <c r="U10">
+        <v>4.8696391682215892E-4</v>
+      </c>
+      <c r="V10">
+        <v>10.586195749833294</v>
+      </c>
+      <c r="W10">
+        <v>-1.7420029707369642E-2</v>
+      </c>
+      <c r="X10">
+        <v>-7.1017358591177179E-2</v>
+      </c>
+      <c r="Y10">
+        <v>5.3584256940116144E-4</v>
+      </c>
+      <c r="Z10">
+        <v>1.7748475698767951E-5</v>
+      </c>
+      <c r="AA10">
+        <v>-2.7408640190427629E-4</v>
+      </c>
+      <c r="AB10">
+        <v>-1.7420029707369639E-2</v>
+      </c>
+      <c r="AC10">
+        <v>10.597261095865296</v>
+      </c>
+      <c r="AD10">
+        <v>-2.6853466412998347E-2</v>
+      </c>
+      <c r="AE10">
+        <v>-2.0488038680317178E-3</v>
+      </c>
+      <c r="AF10">
+        <v>1.1523223842407537E-3</v>
+      </c>
+      <c r="AG10">
+        <v>-2.5881036484146865E-3</v>
+      </c>
+      <c r="AH10">
+        <v>-7.1017358591177193E-2</v>
+      </c>
+      <c r="AI10">
+        <v>-2.6853466412998343E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>17.188626620172567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22.832567210076462</v>
+      </c>
+      <c r="B11">
+        <v>-6.3271873677461437E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.160728834842658E-6</v>
+      </c>
+      <c r="D11">
+        <v>5.8448930932897156E-5</v>
+      </c>
+      <c r="E11">
+        <v>6.8446527509909494E-5</v>
+      </c>
+      <c r="F11">
+        <v>1.1077379285105091E-3</v>
+      </c>
+      <c r="G11">
+        <v>-6.3271873677461426E-7</v>
+      </c>
+      <c r="H11">
+        <v>23.970762188017389</v>
+      </c>
+      <c r="I11">
+        <v>8.377247252041991E-8</v>
+      </c>
+      <c r="J11">
+        <v>-7.2602121145944913E-5</v>
+      </c>
+      <c r="K11">
+        <v>-2.5979027881959646E-5</v>
+      </c>
+      <c r="L11">
+        <v>7.8301058580689811E-4</v>
+      </c>
+      <c r="M11">
+        <v>1.1607288348426766E-6</v>
+      </c>
+      <c r="N11">
+        <v>8.3772472520419368E-8</v>
+      </c>
+      <c r="O11">
+        <v>17.049252728192251</v>
+      </c>
+      <c r="P11">
+        <v>5.2094989971699724E-4</v>
+      </c>
+      <c r="Q11">
+        <v>-4.5683607913145824E-5</v>
+      </c>
+      <c r="R11">
+        <v>-1.3967027420155958E-3</v>
+      </c>
+      <c r="S11">
+        <v>5.8448930932897169E-5</v>
+      </c>
+      <c r="T11">
+        <v>-7.26021211459449E-5</v>
+      </c>
+      <c r="U11">
+        <v>5.2094989971699745E-4</v>
+      </c>
+      <c r="V11">
+        <v>9.4134167633447667</v>
+      </c>
+      <c r="W11">
+        <v>3.1681505655003221E-3</v>
+      </c>
+      <c r="X11">
+        <v>-2.5070194238150569E-2</v>
+      </c>
+      <c r="Y11">
+        <v>6.8446527509909507E-5</v>
+      </c>
+      <c r="Z11">
+        <v>-2.5979027881959646E-5</v>
+      </c>
+      <c r="AA11">
+        <v>-4.5683607913145959E-5</v>
+      </c>
+      <c r="AB11">
+        <v>3.1681505655002861E-3</v>
+      </c>
+      <c r="AC11">
+        <v>9.4203191900581107</v>
+      </c>
+      <c r="AD11">
+        <v>-2.4538909925176631E-2</v>
+      </c>
+      <c r="AE11">
+        <v>1.1077379285105095E-3</v>
+      </c>
+      <c r="AF11">
+        <v>7.8301058580689811E-4</v>
+      </c>
+      <c r="AG11">
+        <v>-1.3967027420155732E-3</v>
+      </c>
+      <c r="AH11">
+        <v>-2.5070194238150569E-2</v>
+      </c>
+      <c r="AI11">
+        <v>-2.4538909925176631E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>16.852893436873618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22.832567877169762</v>
+      </c>
+      <c r="B12">
+        <v>-5.8395891080845193E-7</v>
+      </c>
+      <c r="C12">
+        <v>2.5320065108633732E-7</v>
+      </c>
+      <c r="D12">
+        <v>-3.3416789986590311E-5</v>
+      </c>
+      <c r="E12">
+        <v>-9.3179618735951563E-5</v>
+      </c>
+      <c r="F12">
+        <v>-9.3738660959609302E-4</v>
+      </c>
+      <c r="G12">
+        <v>-5.8395891080845214E-7</v>
+      </c>
+      <c r="H12">
+        <v>23.970761652853344</v>
+      </c>
+      <c r="I12">
+        <v>-2.722786600555569E-6</v>
+      </c>
+      <c r="J12">
+        <v>6.9232198875031735E-5</v>
+      </c>
+      <c r="K12">
+        <v>5.5268064671502677E-5</v>
+      </c>
+      <c r="L12">
+        <v>-1.0269917095446204E-3</v>
+      </c>
+      <c r="M12">
+        <v>2.5320065108633701E-7</v>
+      </c>
+      <c r="N12">
+        <v>-2.7227866005555682E-6</v>
+      </c>
+      <c r="O12">
+        <v>17.049160189715529</v>
+      </c>
+      <c r="P12">
+        <v>-4.8065924258262422E-4</v>
+      </c>
+      <c r="Q12">
+        <v>2.3137251189009409E-4</v>
+      </c>
+      <c r="R12">
+        <v>-3.580163711222344E-3</v>
+      </c>
+      <c r="S12">
+        <v>-3.3416789986590304E-5</v>
+      </c>
+      <c r="T12">
+        <v>6.9232198875031722E-5</v>
+      </c>
+      <c r="U12">
+        <v>-4.8065924258262438E-4</v>
+      </c>
+      <c r="V12">
+        <v>9.8095295395236732</v>
+      </c>
+      <c r="W12">
+        <v>-1.7676007066225123E-2</v>
+      </c>
+      <c r="X12">
+        <v>-2.6398315183988309E-2</v>
+      </c>
+      <c r="Y12">
+        <v>-9.3179618735951563E-5</v>
+      </c>
+      <c r="Z12">
+        <v>5.5268064671502677E-5</v>
+      </c>
+      <c r="AA12">
+        <v>2.3137251189009409E-4</v>
+      </c>
+      <c r="AB12">
+        <v>-1.7676007066225182E-2</v>
+      </c>
+      <c r="AC12">
+        <v>9.821583352939669</v>
+      </c>
+      <c r="AD12">
+        <v>-2.5107250010649226E-2</v>
+      </c>
+      <c r="AE12">
+        <v>-9.3738660959609334E-4</v>
+      </c>
+      <c r="AF12">
+        <v>-1.0269917095446204E-3</v>
+      </c>
+      <c r="AG12">
+        <v>-3.5801637112223474E-3</v>
+      </c>
+      <c r="AH12">
+        <v>-2.6398315183988309E-2</v>
+      </c>
+      <c r="AI12">
+        <v>-2.5107250010649226E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>17.059111896695974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22.832568433678109</v>
+      </c>
+      <c r="B13">
+        <v>-5.5809109179552686E-8</v>
+      </c>
+      <c r="C13">
+        <v>-9.9381216390920433E-8</v>
+      </c>
+      <c r="D13">
+        <v>5.1947692768279438E-5</v>
+      </c>
+      <c r="E13">
+        <v>-3.2393056410063956E-6</v>
+      </c>
+      <c r="F13">
+        <v>-5.5103613982984267E-4</v>
+      </c>
+      <c r="G13">
+        <v>-5.5809109179552653E-8</v>
+      </c>
+      <c r="H13">
+        <v>23.970762498008312</v>
+      </c>
+      <c r="I13">
+        <v>-1.7770640951778295E-6</v>
+      </c>
+      <c r="J13">
+        <v>-1.8688021333954268E-5</v>
+      </c>
+      <c r="K13">
+        <v>-5.5649739249432304E-6</v>
+      </c>
+      <c r="L13">
+        <v>-1.802758102418701E-4</v>
+      </c>
+      <c r="M13">
+        <v>-9.938121639092083E-8</v>
+      </c>
+      <c r="N13">
+        <v>-1.7770640951778271E-6</v>
+      </c>
+      <c r="O13">
+        <v>17.049259480891486</v>
+      </c>
+      <c r="P13">
+        <v>-2.2774469234672346E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1.0708895809874576E-4</v>
+      </c>
+      <c r="R13">
+        <v>-7.8794929201600331E-4</v>
+      </c>
+      <c r="S13">
+        <v>5.1947692768279438E-5</v>
+      </c>
+      <c r="T13">
+        <v>-1.8688021333954261E-5</v>
+      </c>
+      <c r="U13">
+        <v>-2.2774469234672338E-4</v>
+      </c>
+      <c r="V13">
+        <v>7.9218965402305459</v>
+      </c>
+      <c r="W13">
+        <v>2.7221032513791883E-2</v>
+      </c>
+      <c r="X13">
+        <v>-2.849043923471933E-2</v>
+      </c>
+      <c r="Y13">
+        <v>-3.2393056410063943E-6</v>
+      </c>
+      <c r="Z13">
+        <v>-5.564973924943233E-6</v>
+      </c>
+      <c r="AA13">
+        <v>1.0708895809874576E-4</v>
+      </c>
+      <c r="AB13">
+        <v>2.7221032513791845E-2</v>
+      </c>
+      <c r="AC13">
+        <v>8.0070985400379726</v>
+      </c>
+      <c r="AD13">
+        <v>-2.6089814791969725E-2</v>
+      </c>
+      <c r="AE13">
+        <v>-5.5103613982984277E-4</v>
+      </c>
+      <c r="AF13">
+        <v>-1.8027581024187018E-4</v>
+      </c>
+      <c r="AG13">
+        <v>-7.8794929201600743E-4</v>
+      </c>
+      <c r="AH13">
+        <v>-2.849043923471933E-2</v>
+      </c>
+      <c r="AI13">
+        <v>-2.6089814791969729E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>15.209060188558334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>22.832568993823106</v>
+      </c>
+      <c r="B14">
+        <v>-2.5944115185973552E-8</v>
+      </c>
+      <c r="C14">
+        <v>1.4300053785306495E-7</v>
+      </c>
+      <c r="D14">
+        <v>-2.7189889569350436E-5</v>
+      </c>
+      <c r="E14">
+        <v>-4.1799884295782017E-6</v>
+      </c>
+      <c r="F14">
+        <v>1.9810049917950865E-4</v>
+      </c>
+      <c r="G14">
+        <v>-2.5944115185973542E-8</v>
+      </c>
+      <c r="H14">
+        <v>23.970763359682795</v>
+      </c>
+      <c r="I14">
+        <v>8.4487361043475945E-8</v>
+      </c>
+      <c r="J14">
+        <v>-1.9168347506465366E-5</v>
+      </c>
+      <c r="K14">
+        <v>-1.4788731867257578E-6</v>
+      </c>
+      <c r="L14">
+        <v>2.0753801126268672E-4</v>
+      </c>
+      <c r="M14">
+        <v>1.430005378530651E-7</v>
+      </c>
+      <c r="N14">
+        <v>8.4487361043475971E-8</v>
+      </c>
+      <c r="O14">
+        <v>17.049309325981596</v>
+      </c>
+      <c r="P14">
+        <v>1.1370685772284488E-4</v>
+      </c>
+      <c r="Q14">
+        <v>-2.0271189546944854E-4</v>
+      </c>
+      <c r="R14">
+        <v>-4.2818684302288115E-4</v>
+      </c>
+      <c r="S14">
+        <v>-2.7189889569350436E-5</v>
+      </c>
+      <c r="T14">
+        <v>-1.9168347506465363E-5</v>
+      </c>
+      <c r="U14">
+        <v>1.1370685772284491E-4</v>
+      </c>
+      <c r="V14">
+        <v>7.2882538179313858</v>
+      </c>
+      <c r="W14">
+        <v>-3.343355379366135E-2</v>
+      </c>
+      <c r="X14">
+        <v>-2.9570564826582487E-2</v>
+      </c>
+      <c r="Y14">
+        <v>-4.1799884295782E-6</v>
+      </c>
+      <c r="Z14">
+        <v>-1.4788731867257546E-6</v>
+      </c>
+      <c r="AA14">
+        <v>-2.027118954694486E-4</v>
+      </c>
+      <c r="AB14">
+        <v>-3.3433553793661364E-2</v>
+      </c>
+      <c r="AC14">
+        <v>7.358005034962809</v>
+      </c>
+      <c r="AD14">
+        <v>1.6099820276857621E-2</v>
+      </c>
+      <c r="AE14">
+        <v>1.9810049917950865E-4</v>
+      </c>
+      <c r="AF14">
+        <v>2.0753801126268667E-4</v>
+      </c>
+      <c r="AG14">
+        <v>-4.2818684302288061E-4</v>
+      </c>
+      <c r="AH14">
+        <v>-2.957056482658248E-2</v>
+      </c>
+      <c r="AI14">
+        <v>1.6099820276857621E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>14.721522391063054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22.832568882078753</v>
+      </c>
+      <c r="B15">
+        <v>1.6734600375243562E-8</v>
+      </c>
+      <c r="C15">
+        <v>1.5927155016568116E-7</v>
+      </c>
+      <c r="D15">
+        <v>4.2435572074868159E-6</v>
+      </c>
+      <c r="E15">
+        <v>-3.1928219875842512E-5</v>
+      </c>
+      <c r="F15">
+        <v>-4.2958779503869404E-6</v>
+      </c>
+      <c r="G15">
+        <v>1.6734600375243572E-8</v>
+      </c>
+      <c r="H15">
+        <v>23.970763364533198</v>
+      </c>
+      <c r="I15">
+        <v>-1.5016753899467605E-7</v>
+      </c>
+      <c r="J15">
+        <v>-1.0163570162694514E-6</v>
+      </c>
+      <c r="K15">
+        <v>3.5038181017196436E-6</v>
+      </c>
+      <c r="L15">
+        <v>-8.4488403171383968E-5</v>
+      </c>
+      <c r="M15">
+        <v>1.5927155016568092E-7</v>
+      </c>
+      <c r="N15">
+        <v>-1.5016753899467742E-7</v>
+      </c>
+      <c r="O15">
+        <v>17.049288920725786</v>
+      </c>
+      <c r="P15">
+        <v>4.1216095361156277E-4</v>
+      </c>
+      <c r="Q15">
+        <v>-5.8264691353841902E-5</v>
+      </c>
+      <c r="R15">
+        <v>-2.3934684599874462E-4</v>
+      </c>
+      <c r="S15">
+        <v>4.2435572074868159E-6</v>
+      </c>
+      <c r="T15">
+        <v>-1.0163570162694503E-6</v>
+      </c>
+      <c r="U15">
+        <v>4.1216095361156272E-4</v>
+      </c>
+      <c r="V15">
+        <v>10.137015334011405</v>
+      </c>
+      <c r="W15">
+        <v>-7.9487954670075314E-3</v>
+      </c>
+      <c r="X15">
+        <v>-2.5308835231199103E-2</v>
+      </c>
+      <c r="Y15">
+        <v>-3.1928219875842519E-5</v>
+      </c>
+      <c r="Z15">
+        <v>3.503818101719644E-6</v>
+      </c>
+      <c r="AA15">
+        <v>-5.8264691353841739E-5</v>
+      </c>
+      <c r="AB15">
+        <v>-7.9487954670075644E-3</v>
+      </c>
+      <c r="AC15">
+        <v>10.214647298879663</v>
+      </c>
+      <c r="AD15">
+        <v>-4.016022371866327E-2</v>
+      </c>
+      <c r="AE15">
+        <v>-4.2958779503869014E-6</v>
+      </c>
+      <c r="AF15">
+        <v>-8.4488403171384009E-5</v>
+      </c>
+      <c r="AG15">
+        <v>-2.3934684599875096E-4</v>
+      </c>
+      <c r="AH15">
+        <v>-2.5308835231199103E-2</v>
+      </c>
+      <c r="AI15">
+        <v>-4.016022371866327E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>17.37801783425515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/Testing Code/weizmann_training_mean.xlsx
+++ b/Code/Testing Code/weizmann_training_mean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\TA\TugasAkhir\Code\Training Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\TA\TugasAkhir\Code\Testing Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDE8F107-64AC-49C2-B5C0-E77DFBD59FE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1171C563-D8E2-4BEA-8BD4-D9C63F845605}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="3" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="1" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27537602-1404-466B-906C-F9F794953790}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AJ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,116 +722,6 @@
       </c>
       <c r="AJ3">
         <v>13.669101682192034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>25.611420744738247</v>
-      </c>
-      <c r="B4">
-        <v>1.2249511855254666E-6</v>
-      </c>
-      <c r="C4">
-        <v>-9.3142675435141079E-6</v>
-      </c>
-      <c r="D4">
-        <v>-6.338155666342752E-5</v>
-      </c>
-      <c r="E4">
-        <v>-1.1611316895669127E-4</v>
-      </c>
-      <c r="F4">
-        <v>1.2479570333826307E-3</v>
-      </c>
-      <c r="G4">
-        <v>1.2249511855254666E-6</v>
-      </c>
-      <c r="H4">
-        <v>26.762162565759677</v>
-      </c>
-      <c r="I4">
-        <v>4.0831738765665339E-7</v>
-      </c>
-      <c r="J4">
-        <v>9.7816935969399143E-6</v>
-      </c>
-      <c r="K4">
-        <v>5.4679039672949045E-5</v>
-      </c>
-      <c r="L4">
-        <v>1.1537767622020191E-4</v>
-      </c>
-      <c r="M4">
-        <v>-9.3142675435140554E-6</v>
-      </c>
-      <c r="N4">
-        <v>4.0831738765665238E-7</v>
-      </c>
-      <c r="O4">
-        <v>18.441700844600035</v>
-      </c>
-      <c r="P4">
-        <v>-2.2320386086654224E-5</v>
-      </c>
-      <c r="Q4">
-        <v>-5.6847068124133489E-4</v>
-      </c>
-      <c r="R4">
-        <v>-1.0831936925313607E-3</v>
-      </c>
-      <c r="S4">
-        <v>-6.338155666342752E-5</v>
-      </c>
-      <c r="T4">
-        <v>9.781693596939916E-6</v>
-      </c>
-      <c r="U4">
-        <v>-2.2320386086654207E-5</v>
-      </c>
-      <c r="V4">
-        <v>11.422982974032335</v>
-      </c>
-      <c r="W4">
-        <v>3.0620455234825508E-2</v>
-      </c>
-      <c r="X4">
-        <v>-2.4068193694747751E-2</v>
-      </c>
-      <c r="Y4">
-        <v>-1.1611316895669127E-4</v>
-      </c>
-      <c r="Z4">
-        <v>5.4679039672949045E-5</v>
-      </c>
-      <c r="AA4">
-        <v>-5.6847068124133489E-4</v>
-      </c>
-      <c r="AB4">
-        <v>3.0620455234825466E-2</v>
-      </c>
-      <c r="AC4">
-        <v>11.343944979851258</v>
-      </c>
-      <c r="AD4">
-        <v>1.1261206270571093E-2</v>
-      </c>
-      <c r="AE4">
-        <v>1.2479570333826318E-3</v>
-      </c>
-      <c r="AF4">
-        <v>1.1537767622020172E-4</v>
-      </c>
-      <c r="AG4">
-        <v>-1.0831936925312371E-3</v>
-      </c>
-      <c r="AH4">
-        <v>-2.4068193694747757E-2</v>
-      </c>
-      <c r="AI4">
-        <v>1.1261206270571094E-2</v>
-      </c>
-      <c r="AJ4">
-        <v>18.465492258242733</v>
       </c>
     </row>
   </sheetData>
@@ -1078,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05319B-4AD6-40E5-BB9D-9680BF01BCF4}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
